--- a/xl2roefact/invoice_files/fact_RENF1004.xlsx
+++ b/xl2roefact/invoice_files/fact_RENF1004.xlsx
@@ -823,9 +823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>638640</xdr:colOff>
+      <xdr:colOff>638280</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -839,7 +839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="432360" y="177480"/>
-          <a:ext cx="1354320" cy="344880"/>
+          <a:ext cx="1353960" cy="344520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -861,8 +861,8 @@
   </sheetPr>
   <dimension ref="A2:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25:I26"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.4140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/xl2roefact/invoice_files/fact_RENF1004.xlsx
+++ b/xl2roefact/invoice_files/fact_RENF1004.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t xml:space="preserve">FACTURA</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">Data:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moneda:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RON</t>
   </si>
   <si>
     <t xml:space="preserve">Furnizor</t>
@@ -169,7 +175,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.00"/>
     <numFmt numFmtId="169" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Constantia"/>
@@ -241,6 +247,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -484,7 +497,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -537,35 +550,39 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,7 +602,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,11 +618,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -657,7 +674,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -665,7 +682,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -681,31 +698,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -717,11 +734,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -823,9 +840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>638280</xdr:colOff>
+      <xdr:colOff>637920</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -839,7 +856,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="432360" y="177480"/>
-          <a:ext cx="1353960" cy="344520"/>
+          <a:ext cx="1353600" cy="344160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -862,7 +879,7 @@
   <dimension ref="A2:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.4140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -930,8 +947,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AMF7" s="0"/>
@@ -940,200 +961,200 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="E8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+    <row r="8" s="14" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="E8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="AMF8" s="0"/>
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="E9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+    <row r="9" s="14" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="E9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="AMF9" s="0"/>
       <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22" t="s">
+    <row r="10" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="AMF10" s="0"/>
       <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="20" t="n">
+    <row r="11" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="21" t="n">
         <v>42561459</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="20" t="n">
+      <c r="E11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="21" t="n">
         <v>17753763</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="AMF11" s="0"/>
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" s="13" customFormat="true" ht="23.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="25" t="s">
+    <row r="12" s="14" customFormat="true" ht="23.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="C12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
       <c r="AMF12" s="0"/>
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+    <row r="13" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="AMF13" s="0"/>
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+    <row r="14" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
       <c r="AMF14" s="0"/>
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="20" t="s">
+    <row r="15" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="C15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
       <c r="AMF15" s="0"/>
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" s="27" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="20" t="s">
+    <row r="16" s="28" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="C16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
       <c r="AMF16" s="0"/>
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="32"/>
-      <c r="D17" s="31"/>
+    <row r="17" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="33"/>
+      <c r="D17" s="32"/>
       <c r="AMF17" s="0"/>
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
@@ -1141,196 +1162,196 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-    </row>
-    <row r="19" s="40" customFormat="true" ht="23.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="35" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" s="41" customFormat="true" ht="23.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="B19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="F19" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="G19" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AMF19" s="41"/>
-      <c r="AMG19" s="41"/>
-      <c r="AMH19" s="41"/>
-      <c r="AMI19" s="41"/>
-      <c r="AMJ19" s="41"/>
+      <c r="H19" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AMF19" s="42"/>
+      <c r="AMG19" s="42"/>
+      <c r="AMH19" s="42"/>
+      <c r="AMI19" s="42"/>
+      <c r="AMJ19" s="42"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="n">
+      <c r="A20" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="44" t="n">
+      <c r="B20" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="45" t="n">
         <v>3.5</v>
       </c>
-      <c r="F20" s="45" t="n">
+      <c r="F20" s="46" t="n">
         <v>11111.5</v>
       </c>
-      <c r="G20" s="46" t="n">
+      <c r="G20" s="47" t="n">
         <f aca="false">ROUND(E20*F20,2)</f>
         <v>38890.25</v>
       </c>
-      <c r="H20" s="47" t="n">
+      <c r="H20" s="48" t="n">
         <v>0.19</v>
       </c>
-      <c r="I20" s="46" t="n">
+      <c r="I20" s="47" t="n">
         <f aca="false">ROUND(G20*H20,2)</f>
         <v>7389.15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="46"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="46"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="46"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42" t="n">
+      <c r="A24" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="44" t="n">
+      <c r="B24" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="45" t="n">
+      <c r="F24" s="46" t="n">
         <f aca="false">F20*1%</f>
         <v>111.115</v>
       </c>
-      <c r="G24" s="46" t="n">
+      <c r="G24" s="47" t="n">
         <f aca="false">ROUND(E24*F24,2)</f>
         <v>111.12</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="46" t="n">
+      <c r="H24" s="48"/>
+      <c r="I24" s="47" t="n">
         <f aca="false">ROUND(G24*H24,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="46"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="42"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="46"/>
-    </row>
-    <row r="27" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="47"/>
+    </row>
+    <row r="27" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
       <c r="AMF27" s="0"/>
       <c r="AMG27" s="0"/>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="53" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="54" t="n">
+    <row r="28" s="54" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="55" t="n">
         <f aca="false">C6+30</f>
         <v>45196</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="57" t="n">
+      <c r="D28" s="56"/>
+      <c r="E28" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58" t="n">
         <f aca="false">SUM(G20:G26)</f>
         <v>39001.37</v>
       </c>
@@ -1340,22 +1361,22 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="53" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="58" t="n">
+    <row r="29" s="54" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="59" t="n">
         <v>4.9358</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57" t="n">
+      <c r="D29" s="51"/>
+      <c r="E29" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58" t="n">
         <f aca="false">SUM(I20:I26)</f>
         <v>7389.15</v>
       </c>
@@ -1365,22 +1386,22 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="53" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="56" t="s">
+    <row r="30" s="54" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="57" t="n">
+      <c r="C30" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="58" t="n">
         <f aca="false">I28+I29</f>
         <v>46390.52</v>
       </c>
@@ -1390,744 +1411,744 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="60" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="61"/>
+    <row r="31" s="61" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="62"/>
       <c r="AMF31" s="0"/>
       <c r="AMG31" s="0"/>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="60" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="62"/>
+    <row r="32" s="61" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="63"/>
       <c r="AMF32" s="0"/>
       <c r="AMG32" s="0"/>
       <c r="AMH32" s="0"/>
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="62"/>
+    <row r="33" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="63"/>
       <c r="AMF33" s="0"/>
       <c r="AMG33" s="0"/>
       <c r="AMH33" s="0"/>
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="62"/>
+    <row r="34" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="63"/>
       <c r="AMF34" s="0"/>
       <c r="AMG34" s="0"/>
       <c r="AMH34" s="0"/>
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="62"/>
+    <row r="35" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="63"/>
       <c r="AMF35" s="0"/>
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="62"/>
+    <row r="36" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="63"/>
       <c r="AMF36" s="0"/>
       <c r="AMG36" s="0"/>
       <c r="AMH36" s="0"/>
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="62"/>
+    <row r="37" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="63"/>
       <c r="AMF37" s="0"/>
       <c r="AMG37" s="0"/>
       <c r="AMH37" s="0"/>
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="62"/>
+    <row r="38" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="63"/>
       <c r="AMF38" s="0"/>
       <c r="AMG38" s="0"/>
       <c r="AMH38" s="0"/>
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="62"/>
+    <row r="39" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="63"/>
       <c r="AMF39" s="0"/>
       <c r="AMG39" s="0"/>
       <c r="AMH39" s="0"/>
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="62"/>
+    <row r="40" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="63"/>
       <c r="AMF40" s="0"/>
       <c r="AMG40" s="0"/>
       <c r="AMH40" s="0"/>
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="62"/>
+    <row r="41" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="63"/>
       <c r="AMF41" s="0"/>
       <c r="AMG41" s="0"/>
       <c r="AMH41" s="0"/>
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="62"/>
+    <row r="42" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="63"/>
       <c r="AMF42" s="0"/>
       <c r="AMG42" s="0"/>
       <c r="AMH42" s="0"/>
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="62"/>
+    <row r="43" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="63"/>
       <c r="AMF43" s="0"/>
       <c r="AMG43" s="0"/>
       <c r="AMH43" s="0"/>
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="62"/>
+    <row r="44" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="63"/>
       <c r="AMF44" s="0"/>
       <c r="AMG44" s="0"/>
       <c r="AMH44" s="0"/>
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="62"/>
+    <row r="45" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="63"/>
       <c r="AMF45" s="0"/>
       <c r="AMG45" s="0"/>
       <c r="AMH45" s="0"/>
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="62"/>
+    <row r="46" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="63"/>
       <c r="AMF46" s="0"/>
       <c r="AMG46" s="0"/>
       <c r="AMH46" s="0"/>
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="62"/>
+    <row r="47" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="63"/>
       <c r="AMF47" s="0"/>
       <c r="AMG47" s="0"/>
       <c r="AMH47" s="0"/>
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="62"/>
+    <row r="48" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="63"/>
       <c r="AMF48" s="0"/>
       <c r="AMG48" s="0"/>
       <c r="AMH48" s="0"/>
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="62"/>
+    <row r="49" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="63"/>
       <c r="AMF49" s="0"/>
       <c r="AMG49" s="0"/>
       <c r="AMH49" s="0"/>
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="62"/>
+    <row r="50" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="63"/>
       <c r="AMF50" s="0"/>
       <c r="AMG50" s="0"/>
       <c r="AMH50" s="0"/>
       <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="62"/>
+    <row r="51" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="63"/>
       <c r="AMF51" s="0"/>
       <c r="AMG51" s="0"/>
       <c r="AMH51" s="0"/>
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="62"/>
+    <row r="52" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="63"/>
       <c r="AMF52" s="0"/>
       <c r="AMG52" s="0"/>
       <c r="AMH52" s="0"/>
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="62"/>
+    <row r="53" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="63"/>
       <c r="AMF53" s="0"/>
       <c r="AMG53" s="0"/>
       <c r="AMH53" s="0"/>
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="62"/>
+    <row r="54" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="63"/>
       <c r="AMF54" s="0"/>
       <c r="AMG54" s="0"/>
       <c r="AMH54" s="0"/>
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="62"/>
+    <row r="55" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="63"/>
       <c r="AMF55" s="0"/>
       <c r="AMG55" s="0"/>
       <c r="AMH55" s="0"/>
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="62"/>
+    <row r="56" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="63"/>
       <c r="AMF56" s="0"/>
       <c r="AMG56" s="0"/>
       <c r="AMH56" s="0"/>
       <c r="AMI56" s="0"/>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="62"/>
+    <row r="57" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="63"/>
       <c r="AMF57" s="0"/>
       <c r="AMG57" s="0"/>
       <c r="AMH57" s="0"/>
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="62"/>
+    <row r="58" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="63"/>
       <c r="AMF58" s="0"/>
       <c r="AMG58" s="0"/>
       <c r="AMH58" s="0"/>
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="62"/>
+    <row r="59" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="63"/>
       <c r="AMF59" s="0"/>
       <c r="AMG59" s="0"/>
       <c r="AMH59" s="0"/>
       <c r="AMI59" s="0"/>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="62"/>
+    <row r="60" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="63"/>
       <c r="AMF60" s="0"/>
       <c r="AMG60" s="0"/>
       <c r="AMH60" s="0"/>
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="62"/>
+    <row r="61" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="63"/>
       <c r="AMF61" s="0"/>
       <c r="AMG61" s="0"/>
       <c r="AMH61" s="0"/>
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="62"/>
+    <row r="62" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="63"/>
       <c r="AMF62" s="0"/>
       <c r="AMG62" s="0"/>
       <c r="AMH62" s="0"/>
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="62"/>
+    <row r="63" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="63"/>
       <c r="AMF63" s="0"/>
       <c r="AMG63" s="0"/>
       <c r="AMH63" s="0"/>
       <c r="AMI63" s="0"/>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="62"/>
+    <row r="64" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="63"/>
       <c r="AMF64" s="0"/>
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
       <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="62"/>
+    <row r="65" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="63"/>
       <c r="AMF65" s="0"/>
       <c r="AMG65" s="0"/>
       <c r="AMH65" s="0"/>
       <c r="AMI65" s="0"/>
       <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="62"/>
+    <row r="66" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="63"/>
       <c r="AMF66" s="0"/>
       <c r="AMG66" s="0"/>
       <c r="AMH66" s="0"/>
       <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="62"/>
+    <row r="67" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="63"/>
       <c r="AMF67" s="0"/>
       <c r="AMG67" s="0"/>
       <c r="AMH67" s="0"/>
       <c r="AMI67" s="0"/>
       <c r="AMJ67" s="0"/>
     </row>
-    <row r="68" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="62"/>
+    <row r="68" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="63"/>
       <c r="AMF68" s="0"/>
       <c r="AMG68" s="0"/>
       <c r="AMH68" s="0"/>
       <c r="AMI68" s="0"/>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="62"/>
+    <row r="69" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="63"/>
       <c r="AMF69" s="0"/>
       <c r="AMG69" s="0"/>
       <c r="AMH69" s="0"/>
       <c r="AMI69" s="0"/>
       <c r="AMJ69" s="0"/>
     </row>
-    <row r="70" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="62"/>
+    <row r="70" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="63"/>
       <c r="AMF70" s="0"/>
       <c r="AMG70" s="0"/>
       <c r="AMH70" s="0"/>
       <c r="AMI70" s="0"/>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="71" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="62"/>
+    <row r="71" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="63"/>
       <c r="AMF71" s="0"/>
       <c r="AMG71" s="0"/>
       <c r="AMH71" s="0"/>
       <c r="AMI71" s="0"/>
       <c r="AMJ71" s="0"/>
     </row>
-    <row r="72" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="62"/>
+    <row r="72" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="63"/>
       <c r="AMF72" s="0"/>
       <c r="AMG72" s="0"/>
       <c r="AMH72" s="0"/>
       <c r="AMI72" s="0"/>
       <c r="AMJ72" s="0"/>
     </row>
-    <row r="73" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="62"/>
+    <row r="73" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="63"/>
       <c r="AMF73" s="0"/>
       <c r="AMG73" s="0"/>
       <c r="AMH73" s="0"/>
       <c r="AMI73" s="0"/>
       <c r="AMJ73" s="0"/>
     </row>
-    <row r="74" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="62"/>
+    <row r="74" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="63"/>
       <c r="AMF74" s="0"/>
       <c r="AMG74" s="0"/>
       <c r="AMH74" s="0"/>
       <c r="AMI74" s="0"/>
       <c r="AMJ74" s="0"/>
     </row>
-    <row r="75" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="62"/>
+    <row r="75" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="63"/>
       <c r="AMF75" s="0"/>
       <c r="AMG75" s="0"/>
       <c r="AMH75" s="0"/>
       <c r="AMI75" s="0"/>
       <c r="AMJ75" s="0"/>
     </row>
-    <row r="76" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="62"/>
+    <row r="76" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="63"/>
       <c r="AMF76" s="0"/>
       <c r="AMG76" s="0"/>
       <c r="AMH76" s="0"/>
       <c r="AMI76" s="0"/>
       <c r="AMJ76" s="0"/>
     </row>
-    <row r="77" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="62"/>
+    <row r="77" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="63"/>
       <c r="AMF77" s="0"/>
       <c r="AMG77" s="0"/>
       <c r="AMH77" s="0"/>
       <c r="AMI77" s="0"/>
       <c r="AMJ77" s="0"/>
     </row>
-    <row r="78" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="62"/>
+    <row r="78" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="63"/>
       <c r="AMF78" s="0"/>
       <c r="AMG78" s="0"/>
       <c r="AMH78" s="0"/>
       <c r="AMI78" s="0"/>
       <c r="AMJ78" s="0"/>
     </row>
-    <row r="79" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="62"/>
+    <row r="79" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="63"/>
       <c r="AMF79" s="0"/>
       <c r="AMG79" s="0"/>
       <c r="AMH79" s="0"/>
       <c r="AMI79" s="0"/>
       <c r="AMJ79" s="0"/>
     </row>
-    <row r="80" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="62"/>
+    <row r="80" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="63"/>
       <c r="AMF80" s="0"/>
       <c r="AMG80" s="0"/>
       <c r="AMH80" s="0"/>
       <c r="AMI80" s="0"/>
       <c r="AMJ80" s="0"/>
     </row>
-    <row r="81" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="62"/>
+    <row r="81" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="63"/>
       <c r="AMF81" s="0"/>
       <c r="AMG81" s="0"/>
       <c r="AMH81" s="0"/>
       <c r="AMI81" s="0"/>
       <c r="AMJ81" s="0"/>
     </row>
-    <row r="82" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="62"/>
+    <row r="82" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="63"/>
       <c r="AMF82" s="0"/>
       <c r="AMG82" s="0"/>
       <c r="AMH82" s="0"/>
       <c r="AMI82" s="0"/>
       <c r="AMJ82" s="0"/>
     </row>
-    <row r="83" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="62"/>
+    <row r="83" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="63"/>
       <c r="AMF83" s="0"/>
       <c r="AMG83" s="0"/>
       <c r="AMH83" s="0"/>
       <c r="AMI83" s="0"/>
       <c r="AMJ83" s="0"/>
     </row>
-    <row r="84" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="62"/>
+    <row r="84" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="63"/>
       <c r="AMF84" s="0"/>
       <c r="AMG84" s="0"/>
       <c r="AMH84" s="0"/>
       <c r="AMI84" s="0"/>
       <c r="AMJ84" s="0"/>
     </row>
-    <row r="85" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="62"/>
+    <row r="85" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="63"/>
       <c r="AMF85" s="0"/>
       <c r="AMG85" s="0"/>
       <c r="AMH85" s="0"/>
       <c r="AMI85" s="0"/>
       <c r="AMJ85" s="0"/>
     </row>
-    <row r="86" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="62"/>
+    <row r="86" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="63"/>
       <c r="AMF86" s="0"/>
       <c r="AMG86" s="0"/>
       <c r="AMH86" s="0"/>
       <c r="AMI86" s="0"/>
       <c r="AMJ86" s="0"/>
     </row>
-    <row r="87" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="62"/>
+    <row r="87" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="63"/>
       <c r="AMF87" s="0"/>
       <c r="AMG87" s="0"/>
       <c r="AMH87" s="0"/>
       <c r="AMI87" s="0"/>
       <c r="AMJ87" s="0"/>
     </row>
-    <row r="88" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="62"/>
+    <row r="88" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="63"/>
       <c r="AMF88" s="0"/>
       <c r="AMG88" s="0"/>
       <c r="AMH88" s="0"/>
       <c r="AMI88" s="0"/>
       <c r="AMJ88" s="0"/>
     </row>
-    <row r="89" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="62"/>
+    <row r="89" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="63"/>
       <c r="AMF89" s="0"/>
       <c r="AMG89" s="0"/>
       <c r="AMH89" s="0"/>
       <c r="AMI89" s="0"/>
       <c r="AMJ89" s="0"/>
     </row>
-    <row r="90" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="62"/>
+    <row r="90" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="63"/>
       <c r="AMF90" s="0"/>
       <c r="AMG90" s="0"/>
       <c r="AMH90" s="0"/>
       <c r="AMI90" s="0"/>
       <c r="AMJ90" s="0"/>
     </row>
-    <row r="91" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="62"/>
+    <row r="91" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="63"/>
       <c r="AMF91" s="0"/>
       <c r="AMG91" s="0"/>
       <c r="AMH91" s="0"/>
       <c r="AMI91" s="0"/>
       <c r="AMJ91" s="0"/>
     </row>
-    <row r="92" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="62"/>
+    <row r="92" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="63"/>
       <c r="AMF92" s="0"/>
       <c r="AMG92" s="0"/>
       <c r="AMH92" s="0"/>
       <c r="AMI92" s="0"/>
       <c r="AMJ92" s="0"/>
     </row>
-    <row r="93" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="62"/>
+    <row r="93" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="63"/>
       <c r="AMF93" s="0"/>
       <c r="AMG93" s="0"/>
       <c r="AMH93" s="0"/>
       <c r="AMI93" s="0"/>
       <c r="AMJ93" s="0"/>
     </row>
-    <row r="94" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="62"/>
+    <row r="94" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="63"/>
       <c r="AMF94" s="0"/>
       <c r="AMG94" s="0"/>
       <c r="AMH94" s="0"/>
       <c r="AMI94" s="0"/>
       <c r="AMJ94" s="0"/>
     </row>
-    <row r="95" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="62"/>
+    <row r="95" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="63"/>
       <c r="AMF95" s="0"/>
       <c r="AMG95" s="0"/>
       <c r="AMH95" s="0"/>
       <c r="AMI95" s="0"/>
       <c r="AMJ95" s="0"/>
     </row>
-    <row r="96" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="62"/>
+    <row r="96" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="63"/>
       <c r="AMF96" s="0"/>
       <c r="AMG96" s="0"/>
       <c r="AMH96" s="0"/>
       <c r="AMI96" s="0"/>
       <c r="AMJ96" s="0"/>
     </row>
-    <row r="97" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="62"/>
+    <row r="97" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="63"/>
       <c r="AMF97" s="0"/>
       <c r="AMG97" s="0"/>
       <c r="AMH97" s="0"/>
       <c r="AMI97" s="0"/>
       <c r="AMJ97" s="0"/>
     </row>
-    <row r="98" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="62"/>
+    <row r="98" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="63"/>
       <c r="AMF98" s="0"/>
       <c r="AMG98" s="0"/>
       <c r="AMH98" s="0"/>
       <c r="AMI98" s="0"/>
       <c r="AMJ98" s="0"/>
     </row>
-    <row r="99" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="62"/>
+    <row r="99" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="63"/>
       <c r="AMF99" s="0"/>
       <c r="AMG99" s="0"/>
       <c r="AMH99" s="0"/>
       <c r="AMI99" s="0"/>
       <c r="AMJ99" s="0"/>
     </row>
-    <row r="100" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="62"/>
+    <row r="100" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="63"/>
       <c r="AMF100" s="0"/>
       <c r="AMG100" s="0"/>
       <c r="AMH100" s="0"/>
       <c r="AMI100" s="0"/>
       <c r="AMJ100" s="0"/>
     </row>
-    <row r="101" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="62"/>
+    <row r="101" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="63"/>
       <c r="AMF101" s="0"/>
       <c r="AMG101" s="0"/>
       <c r="AMH101" s="0"/>
       <c r="AMI101" s="0"/>
       <c r="AMJ101" s="0"/>
     </row>
-    <row r="102" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="62"/>
+    <row r="102" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="63"/>
       <c r="AMF102" s="0"/>
       <c r="AMG102" s="0"/>
       <c r="AMH102" s="0"/>
       <c r="AMI102" s="0"/>
       <c r="AMJ102" s="0"/>
     </row>
-    <row r="103" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="62"/>
+    <row r="103" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="63"/>
       <c r="AMF103" s="0"/>
       <c r="AMG103" s="0"/>
       <c r="AMH103" s="0"/>
       <c r="AMI103" s="0"/>
       <c r="AMJ103" s="0"/>
     </row>
-    <row r="104" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="62"/>
+    <row r="104" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="63"/>
       <c r="AMF104" s="0"/>
       <c r="AMG104" s="0"/>
       <c r="AMH104" s="0"/>
       <c r="AMI104" s="0"/>
       <c r="AMJ104" s="0"/>
     </row>
-    <row r="105" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="62"/>
+    <row r="105" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="63"/>
       <c r="AMF105" s="0"/>
       <c r="AMG105" s="0"/>
       <c r="AMH105" s="0"/>
       <c r="AMI105" s="0"/>
       <c r="AMJ105" s="0"/>
     </row>
-    <row r="106" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="62"/>
+    <row r="106" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="63"/>
       <c r="AMF106" s="0"/>
       <c r="AMG106" s="0"/>
       <c r="AMH106" s="0"/>
       <c r="AMI106" s="0"/>
       <c r="AMJ106" s="0"/>
     </row>
-    <row r="107" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="62"/>
+    <row r="107" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="63"/>
       <c r="AMF107" s="0"/>
       <c r="AMG107" s="0"/>
       <c r="AMH107" s="0"/>
       <c r="AMI107" s="0"/>
       <c r="AMJ107" s="0"/>
     </row>
-    <row r="108" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="62"/>
+    <row r="108" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="63"/>
       <c r="AMF108" s="0"/>
       <c r="AMG108" s="0"/>
       <c r="AMH108" s="0"/>
       <c r="AMI108" s="0"/>
       <c r="AMJ108" s="0"/>
     </row>
-    <row r="109" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="62"/>
+    <row r="109" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="63"/>
       <c r="AMF109" s="0"/>
       <c r="AMG109" s="0"/>
       <c r="AMH109" s="0"/>
       <c r="AMI109" s="0"/>
       <c r="AMJ109" s="0"/>
     </row>
-    <row r="110" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="62"/>
+    <row r="110" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="63"/>
       <c r="AMF110" s="0"/>
       <c r="AMG110" s="0"/>
       <c r="AMH110" s="0"/>
       <c r="AMI110" s="0"/>
       <c r="AMJ110" s="0"/>
     </row>
-    <row r="111" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="62"/>
+    <row r="111" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="63"/>
       <c r="AMF111" s="0"/>
       <c r="AMG111" s="0"/>
       <c r="AMH111" s="0"/>
       <c r="AMI111" s="0"/>
       <c r="AMJ111" s="0"/>
     </row>
-    <row r="112" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="62"/>
+    <row r="112" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="63"/>
       <c r="AMF112" s="0"/>
       <c r="AMG112" s="0"/>
       <c r="AMH112" s="0"/>
       <c r="AMI112" s="0"/>
       <c r="AMJ112" s="0"/>
     </row>
-    <row r="113" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="62"/>
+    <row r="113" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="63"/>
       <c r="AMF113" s="0"/>
       <c r="AMG113" s="0"/>
       <c r="AMH113" s="0"/>
       <c r="AMI113" s="0"/>
       <c r="AMJ113" s="0"/>
     </row>
-    <row r="114" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="62"/>
+    <row r="114" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="63"/>
       <c r="AMF114" s="0"/>
       <c r="AMG114" s="0"/>
       <c r="AMH114" s="0"/>
       <c r="AMI114" s="0"/>
       <c r="AMJ114" s="0"/>
     </row>
-    <row r="115" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="62"/>
+    <row r="115" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="63"/>
       <c r="AMF115" s="0"/>
       <c r="AMG115" s="0"/>
       <c r="AMH115" s="0"/>
       <c r="AMI115" s="0"/>
       <c r="AMJ115" s="0"/>
     </row>
-    <row r="116" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="62"/>
+    <row r="116" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="63"/>
       <c r="AMF116" s="0"/>
       <c r="AMG116" s="0"/>
       <c r="AMH116" s="0"/>
       <c r="AMI116" s="0"/>
       <c r="AMJ116" s="0"/>
     </row>
-    <row r="117" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="62"/>
+    <row r="117" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="63"/>
       <c r="AMF117" s="0"/>
       <c r="AMG117" s="0"/>
       <c r="AMH117" s="0"/>
       <c r="AMI117" s="0"/>
       <c r="AMJ117" s="0"/>
     </row>
-    <row r="118" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="62"/>
+    <row r="118" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="63"/>
       <c r="AMF118" s="0"/>
       <c r="AMG118" s="0"/>
       <c r="AMH118" s="0"/>
       <c r="AMI118" s="0"/>
       <c r="AMJ118" s="0"/>
     </row>
-    <row r="119" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="62"/>
+    <row r="119" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="63"/>
       <c r="AMF119" s="0"/>
       <c r="AMG119" s="0"/>
       <c r="AMH119" s="0"/>
       <c r="AMI119" s="0"/>
       <c r="AMJ119" s="0"/>
     </row>
-    <row r="120" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="62"/>
+    <row r="120" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="63"/>
       <c r="AMF120" s="0"/>
       <c r="AMG120" s="0"/>
       <c r="AMH120" s="0"/>
       <c r="AMI120" s="0"/>
       <c r="AMJ120" s="0"/>
     </row>
-    <row r="121" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="62"/>
+    <row r="121" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="63"/>
       <c r="AMF121" s="0"/>
       <c r="AMG121" s="0"/>
       <c r="AMH121" s="0"/>
       <c r="AMI121" s="0"/>
       <c r="AMJ121" s="0"/>
     </row>
-    <row r="122" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="62"/>
+    <row r="122" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="63"/>
       <c r="AMF122" s="0"/>
       <c r="AMG122" s="0"/>
       <c r="AMH122" s="0"/>
       <c r="AMI122" s="0"/>
       <c r="AMJ122" s="0"/>
     </row>
-    <row r="123" s="60" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="62"/>
+    <row r="123" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="63"/>
       <c r="AMF123" s="0"/>
       <c r="AMG123" s="0"/>
       <c r="AMH123" s="0"/>

--- a/xl2roefact/invoice_files/fact_RENF1004.xlsx
+++ b/xl2roefact/invoice_files/fact_RENF1004.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">FACTURA</t>
   </si>
   <si>
-    <t xml:space="preserve">Nr:</t>
+    <t xml:space="preserve">Numar factura:</t>
   </si>
   <si>
     <t xml:space="preserve">RENF-1004</t>
@@ -170,8 +170,8 @@
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="0%"/>
     <numFmt numFmtId="168" formatCode="#,##0.00"/>
     <numFmt numFmtId="169" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
   </numFmts>
@@ -240,13 +240,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -530,11 +530,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -542,8 +542,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -690,7 +690,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -718,7 +718,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -726,11 +726,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -840,9 +840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>637920</xdr:colOff>
+      <xdr:colOff>589320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -856,7 +856,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="432360" y="177480"/>
-          <a:ext cx="1353600" cy="344160"/>
+          <a:ext cx="1353960" cy="343080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -879,13 +879,13 @@
   <dimension ref="A2:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.4140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="35.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.81"/>
@@ -929,7 +929,7 @@
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -940,10 +940,10 @@
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="8" t="n">
         <v>45166</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -2159,8 +2159,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D5:E5"/>
+  <mergeCells count="20">
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="F10:I10"/>

--- a/xl2roefact/invoice_files/fact_RENF1004.xlsx
+++ b/xl2roefact/invoice_files/fact_RENF1004.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t xml:space="preserve">FACTURA</t>
   </si>
@@ -73,7 +73,13 @@
     <t xml:space="preserve">sos Nicolae Titulescu, nr 81-87, Bucureşti, Sector 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bucureşti Sectorul 1, Strada BUZEŞTI, Nr. 71, Etaj 7 si 8</t>
+    <t xml:space="preserve">oras: Bucureşti Sectorul 1, Strada: BUZEŞTI, Nr. 71, Etaj 7 si 8, tara: Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tara:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
   </si>
   <si>
     <t xml:space="preserve">Email:</t>
@@ -840,9 +846,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>589320</xdr:colOff>
+      <xdr:colOff>588600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -856,7 +862,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="432360" y="177480"/>
-          <a:ext cx="1353960" cy="343080"/>
+          <a:ext cx="1353960" cy="342360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -879,7 +885,7 @@
   <dimension ref="A2:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.4140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1065,35 +1071,36 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="F13" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
       <c r="AMF13" s="0"/>
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="29" t="s">
+    <row r="14" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="27"/>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="23"/>
@@ -1110,38 +1117,36 @@
       <c r="B15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
       <c r="AMF15" s="0"/>
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" s="28" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>27</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -1152,103 +1157,113 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="33"/>
+    <row r="17" s="28" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>28</v>
+      </c>
       <c r="D17" s="32"/>
+      <c r="E17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
       <c r="AMF17" s="0"/>
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" s="41" customFormat="true" ht="23.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36" t="s">
+    <row r="18" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="33"/>
+      <c r="D18" s="32"/>
+      <c r="AMF18" s="0"/>
+      <c r="AMG18" s="0"/>
+      <c r="AMH18" s="0"/>
+      <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" s="41" customFormat="true" ht="23.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="E20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="G20" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AMF19" s="42"/>
-      <c r="AMG19" s="42"/>
-      <c r="AMH19" s="42"/>
-      <c r="AMI19" s="42"/>
-      <c r="AMJ19" s="42"/>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43" t="n">
+      <c r="H20" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AMF20" s="42"/>
+      <c r="AMG20" s="42"/>
+      <c r="AMH20" s="42"/>
+      <c r="AMI20" s="42"/>
+      <c r="AMJ20" s="42"/>
+    </row>
+    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F20" s="46" t="n">
-        <v>11111.5</v>
-      </c>
-      <c r="G20" s="47" t="n">
-        <f aca="false">ROUND(E20*F20,2)</f>
-        <v>38890.25</v>
-      </c>
-      <c r="H20" s="48" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I20" s="47" t="n">
-        <f aca="false">ROUND(G20*H20,2)</f>
-        <v>7389.15</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43"/>
       <c r="B21" s="44" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="47"/>
+      <c r="D21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F21" s="46" t="n">
+        <v>11111.5</v>
+      </c>
+      <c r="G21" s="47" t="n">
+        <f aca="false">ROUND(E21*F21,2)</f>
+        <v>38890.25</v>
+      </c>
+      <c r="H21" s="48" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I21" s="47" t="n">
+        <f aca="false">ROUND(G21*H21,2)</f>
+        <v>7389.15</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="43"/>
       <c r="B22" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="43"/>
@@ -1261,7 +1276,7 @@
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="43"/>
       <c r="B23" s="44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="43"/>
@@ -1272,41 +1287,43 @@
       <c r="I23" s="47"/>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="43" t="n">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="47"/>
+    </row>
+    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="46" t="n">
-        <f aca="false">F20*1%</f>
-        <v>111.115</v>
-      </c>
-      <c r="G24" s="47" t="n">
-        <f aca="false">ROUND(E24*F24,2)</f>
-        <v>111.12</v>
-      </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="47" t="n">
-        <f aca="false">ROUND(G24*H24,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="43"/>
-      <c r="B25" s="49"/>
+      <c r="B25" s="49" t="s">
+        <v>43</v>
+      </c>
       <c r="C25" s="49"/>
       <c r="D25" s="43"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
+      <c r="E25" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="46" t="n">
+        <f aca="false">F21*1%</f>
+        <v>111.115</v>
+      </c>
+      <c r="G25" s="47" t="n">
+        <f aca="false">ROUND(E25*F25,2)</f>
+        <v>111.12</v>
+      </c>
       <c r="H25" s="48"/>
-      <c r="I25" s="47"/>
+      <c r="I25" s="47" t="n">
+        <f aca="false">ROUND(G25*H25,2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="43"/>
@@ -1319,42 +1336,27 @@
       <c r="H26" s="48"/>
       <c r="I26" s="47"/>
     </row>
-    <row r="27" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="AMF27" s="0"/>
-      <c r="AMG27" s="0"/>
-      <c r="AMH27" s="0"/>
-      <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
-    </row>
-    <row r="28" s="54" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="43"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="47"/>
+    </row>
+    <row r="28" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="50"/>
-      <c r="B28" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="55" t="n">
-        <f aca="false">C6+30</f>
-        <v>45196</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="58" t="n">
-        <f aca="false">SUM(G20:G26)</f>
-        <v>39001.37</v>
-      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
       <c r="AMF28" s="0"/>
       <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
@@ -1364,12 +1366,13 @@
     <row r="29" s="54" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="50"/>
       <c r="B29" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="59" t="n">
-        <v>4.9358</v>
-      </c>
-      <c r="D29" s="51"/>
+        <v>44</v>
+      </c>
+      <c r="C29" s="55" t="n">
+        <f aca="false">C6+30</f>
+        <v>45196</v>
+      </c>
+      <c r="D29" s="56"/>
       <c r="E29" s="57" t="s">
         <v>35</v>
       </c>
@@ -1377,8 +1380,8 @@
       <c r="G29" s="57"/>
       <c r="H29" s="57"/>
       <c r="I29" s="58" t="n">
-        <f aca="false">SUM(I20:I26)</f>
-        <v>7389.15</v>
+        <f aca="false">SUM(G21:G27)</f>
+        <v>39001.37</v>
       </c>
       <c r="AMF29" s="0"/>
       <c r="AMG29" s="0"/>
@@ -1389,21 +1392,21 @@
     <row r="30" s="54" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="50"/>
       <c r="B30" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="60" t="s">
         <v>45</v>
+      </c>
+      <c r="C30" s="59" t="n">
+        <v>4.9358</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="57" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
       <c r="H30" s="57"/>
       <c r="I30" s="58" t="n">
-        <f aca="false">I28+I29</f>
-        <v>46390.52</v>
+        <f aca="false">SUM(I21:I27)</f>
+        <v>7389.15</v>
       </c>
       <c r="AMF30" s="0"/>
       <c r="AMG30" s="0"/>
@@ -1411,8 +1414,25 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="61" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="62"/>
+    <row r="31" s="54" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="58" t="n">
+        <f aca="false">I29+I30</f>
+        <v>46390.52</v>
+      </c>
       <c r="AMF31" s="0"/>
       <c r="AMG31" s="0"/>
       <c r="AMH31" s="0"/>
@@ -1420,14 +1440,14 @@
       <c r="AMJ31" s="0"/>
     </row>
     <row r="32" s="61" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="63"/>
+      <c r="C32" s="62"/>
       <c r="AMF32" s="0"/>
       <c r="AMG32" s="0"/>
       <c r="AMH32" s="0"/>
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="61" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="63"/>
       <c r="AMF33" s="0"/>
       <c r="AMG33" s="0"/>
@@ -2155,11 +2175,18 @@
       <c r="AMI123" s="0"/>
       <c r="AMJ123" s="0"/>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" s="61" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="63"/>
+      <c r="AMF124" s="0"/>
+      <c r="AMG124" s="0"/>
+      <c r="AMH124" s="0"/>
+      <c r="AMI124" s="0"/>
+      <c r="AMJ124" s="0"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="F10:I10"/>
@@ -2169,7 +2196,7 @@
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F17:I17"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -2177,9 +2204,10 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.263194444444444" right="0.236111111111111" top="0.511805555555556" bottom="0.747916666666667" header="0.511811023622047" footer="0.511811023622047"/>
